--- a/menus.xlsx
+++ b/menus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>Page INFOS     (P)</t>
   </si>
@@ -354,9 +354,6 @@
     <t>AppEUI         (S)</t>
   </si>
   <si>
-    <t xml:space="preserve"> m02_2F_AppEUI()</t>
-  </si>
-  <si>
     <t>Spread Fact    (S)</t>
   </si>
   <si>
@@ -519,26 +516,104 @@
     <t>PopMenu()</t>
   </si>
   <si>
-    <t>Sauvegarde pas dans 3231</t>
-  </si>
-  <si>
     <t>Sauvegarde dans µC</t>
   </si>
   <si>
     <t>Sauvegarde dans Struct</t>
   </si>
   <si>
-    <t>Pile à 1,5V</t>
-  </si>
-  <si>
     <t>Affiche ecran, valid = sortie, modifier (scalingVBat())</t>
+  </si>
+  <si>
+    <t>Supprimer infos saisie inutiles</t>
+  </si>
+  <si>
+    <t>m02_2F_AppEUI()</t>
+  </si>
+  <si>
+    <t>saisieActive</t>
+  </si>
+  <si>
+    <t>Recalculer prochain envoi Payload</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Fonctionnel</t>
+  </si>
+  <si>
+    <t>Display Payload (S)</t>
+  </si>
+  <si>
+    <t>m02_7E_DisplayPayload()</t>
+  </si>
+  <si>
+    <t>Envoi Payload "JOIN"</t>
+  </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
+    <t>Envoi Payload "Restart"</t>
+  </si>
+  <si>
+    <t>Envoi Data Payload</t>
+  </si>
+  <si>
+    <t>// Système</t>
+  </si>
+  <si>
+    <t>// LoRa</t>
+  </si>
+  <si>
+    <t>// Balances</t>
+  </si>
+  <si>
+    <t>// Analogiques</t>
+  </si>
+  <si>
+    <t>ScreenRefreshed;  // info generale de maj ecran info pour desactiver dans Handle.cpp</t>
+  </si>
+  <si>
+    <t>InfoScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>LoRaScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>LoraScreenRefreshNextPayload;</t>
+  </si>
+  <si>
+    <t>InfoBalScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>WeightScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>WeightScreenRefreshWeights;</t>
+  </si>
+  <si>
+    <t>InfoVBatScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>InfoVLumScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>InfoVSolScreenRefreshTime;</t>
+  </si>
+  <si>
+    <t>generer fonction d'affichage des données dynamiques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +633,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -598,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -651,11 +733,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -668,6 +763,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +882,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -829,7 +926,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -867,13 +964,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -911,13 +1008,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1220,10 +1317,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B9:N59"/>
+  <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,18 +1337,29 @@
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1259,19 +1367,13 @@
         <v>15</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1279,50 +1381,53 @@
         <v>14</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -1336,10 +1441,10 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1353,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1367,10 +1472,10 @@
         <v>24</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1386,16 +1491,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="9" t="s">
         <v>25</v>
       </c>
@@ -1403,274 +1508,416 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="2" t="s">
+      <c r="H26" t="s">
         <v>35</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="3" t="s">
+      <c r="K27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="11"/>
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="11"/>
-      <c r="G32" s="4" t="s">
+    <row r="34" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="11"/>
+      <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="6:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="11"/>
-      <c r="G33" s="1" t="s">
+      <c r="H34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="11"/>
-      <c r="G34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="11"/>
       <c r="G35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="11"/>
       <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="11"/>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="11"/>
+      <c r="G38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K36" t="s">
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="11"/>
-      <c r="G37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="6:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="6:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="6:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="7:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="7:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="L57" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L56" s="2" t="s">
+      <c r="M57" t="s">
         <v>67</v>
       </c>
-      <c r="M56" t="s">
+    </row>
+    <row r="58" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="7:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L57" s="2" t="s">
+      <c r="M58" t="s">
         <v>69</v>
       </c>
-      <c r="M57" t="s">
+    </row>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="7:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M59" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
